--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.452389333333333</v>
+        <v>1.069299666666667</v>
       </c>
       <c r="H2">
-        <v>7.357168</v>
+        <v>3.207899</v>
       </c>
       <c r="I2">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="J2">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.80829433333334</v>
+        <v>13.929953</v>
       </c>
       <c r="N2">
-        <v>158.424883</v>
+        <v>41.789859</v>
       </c>
       <c r="O2">
-        <v>0.1724060238174878</v>
+        <v>0.09674275490334808</v>
       </c>
       <c r="P2">
-        <v>0.1724060238174878</v>
+        <v>0.09674275490334808</v>
       </c>
       <c r="Q2">
-        <v>129.5064977345938</v>
+        <v>14.89529409958233</v>
       </c>
       <c r="R2">
-        <v>1165.558479611344</v>
+        <v>134.057646896241</v>
       </c>
       <c r="S2">
-        <v>0.001378173636028168</v>
+        <v>0.00034988954106832</v>
       </c>
       <c r="T2">
-        <v>0.001378173636028168</v>
+        <v>0.00034988954106832</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.452389333333333</v>
+        <v>1.069299666666667</v>
       </c>
       <c r="H3">
-        <v>7.357168</v>
+        <v>3.207899</v>
       </c>
       <c r="I3">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="J3">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>81.07766966666668</v>
+        <v>81.07766966666667</v>
       </c>
       <c r="N3">
         <v>243.233009</v>
       </c>
       <c r="O3">
-        <v>0.2646985445010758</v>
+        <v>0.5630799418129374</v>
       </c>
       <c r="P3">
-        <v>0.2646985445010758</v>
+        <v>0.5630799418129373</v>
       </c>
       <c r="Q3">
-        <v>198.8340122620569</v>
+        <v>86.69632514867678</v>
       </c>
       <c r="R3">
-        <v>1789.506110358512</v>
+        <v>780.266926338091</v>
       </c>
       <c r="S3">
-        <v>0.00211593857017778</v>
+        <v>0.002036491338524893</v>
       </c>
       <c r="T3">
-        <v>0.00211593857017778</v>
+        <v>0.002036491338524892</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.452389333333333</v>
+        <v>1.069299666666667</v>
       </c>
       <c r="H4">
-        <v>7.357168</v>
+        <v>3.207899</v>
       </c>
       <c r="I4">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="J4">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>172.4159456666667</v>
+        <v>48.98200233333333</v>
       </c>
       <c r="N4">
-        <v>517.247837</v>
+        <v>146.946007</v>
       </c>
       <c r="O4">
-        <v>0.5628954316814363</v>
+        <v>0.3401773032837146</v>
       </c>
       <c r="P4">
-        <v>0.5628954316814363</v>
+        <v>0.3401773032837146</v>
       </c>
       <c r="Q4">
-        <v>422.8310260495128</v>
+        <v>52.37643876769923</v>
       </c>
       <c r="R4">
-        <v>3805.479234445616</v>
+        <v>471.3879489092931</v>
       </c>
       <c r="S4">
-        <v>0.004499655096769079</v>
+        <v>0.001230319321035568</v>
       </c>
       <c r="T4">
-        <v>0.004499655096769079</v>
+        <v>0.001230319321035568</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>730.7018890000001</v>
       </c>
       <c r="I5">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364892</v>
       </c>
       <c r="J5">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364891</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.80829433333334</v>
+        <v>13.929953</v>
       </c>
       <c r="N5">
-        <v>158.424883</v>
+        <v>41.789859</v>
       </c>
       <c r="O5">
-        <v>0.1724060238174878</v>
+        <v>0.09674275490334808</v>
       </c>
       <c r="P5">
-        <v>0.1724060238174878</v>
+        <v>0.09674275490334808</v>
       </c>
       <c r="Q5">
-        <v>12862.37347474489</v>
+        <v>3392.880990260406</v>
       </c>
       <c r="R5">
-        <v>115761.361272704</v>
+        <v>30535.92891234365</v>
       </c>
       <c r="S5">
-        <v>0.1368779507571094</v>
+        <v>0.07969856550968858</v>
       </c>
       <c r="T5">
-        <v>0.1368779507571094</v>
+        <v>0.07969856550968857</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>730.7018890000001</v>
       </c>
       <c r="I6">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364892</v>
       </c>
       <c r="J6">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364891</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.07766966666668</v>
+        <v>81.07766966666667</v>
       </c>
       <c r="N6">
         <v>243.233009</v>
       </c>
       <c r="O6">
-        <v>0.2646985445010758</v>
+        <v>0.5630799418129374</v>
       </c>
       <c r="P6">
-        <v>0.2646985445010758</v>
+        <v>0.5630799418129373</v>
       </c>
       <c r="Q6">
-        <v>19747.86879371712</v>
+        <v>19747.86879371711</v>
       </c>
       <c r="R6">
         <v>177730.819143454</v>
       </c>
       <c r="S6">
-        <v>0.2101515569899808</v>
+        <v>0.463876221786371</v>
       </c>
       <c r="T6">
-        <v>0.2101515569899808</v>
+        <v>0.4638762217863708</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>730.7018890000001</v>
       </c>
       <c r="I7">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364892</v>
       </c>
       <c r="J7">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364891</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>172.4159456666667</v>
+        <v>48.98200233333333</v>
       </c>
       <c r="N7">
-        <v>517.247837</v>
+        <v>146.946007</v>
       </c>
       <c r="O7">
-        <v>0.5628954316814363</v>
+        <v>0.3401773032837146</v>
       </c>
       <c r="P7">
-        <v>0.5628954316814363</v>
+        <v>0.3401773032837146</v>
       </c>
       <c r="Q7">
-        <v>41994.8857307849</v>
+        <v>11930.41387732303</v>
       </c>
       <c r="R7">
-        <v>377953.9715770641</v>
+        <v>107373.7248959072</v>
       </c>
       <c r="S7">
-        <v>0.4468983825104503</v>
+        <v>0.2802446872404297</v>
       </c>
       <c r="T7">
-        <v>0.4468983825104503</v>
+        <v>0.2802446872404297</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.76799533333334</v>
+        <v>51.01955666666666</v>
       </c>
       <c r="H8">
-        <v>182.303986</v>
+        <v>153.05867</v>
       </c>
       <c r="I8">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="J8">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.80829433333334</v>
+        <v>13.929953</v>
       </c>
       <c r="N8">
-        <v>158.424883</v>
+        <v>41.789859</v>
       </c>
       <c r="O8">
-        <v>0.1724060238174878</v>
+        <v>0.09674275490334808</v>
       </c>
       <c r="P8">
-        <v>0.1724060238174878</v>
+        <v>0.09674275490334808</v>
       </c>
       <c r="Q8">
-        <v>3209.054183609294</v>
+        <v>710.7000264475032</v>
       </c>
       <c r="R8">
-        <v>28881.48765248364</v>
+        <v>6396.300238027529</v>
       </c>
       <c r="S8">
-        <v>0.03414989942435027</v>
+        <v>0.01669429985259119</v>
       </c>
       <c r="T8">
-        <v>0.03414989942435027</v>
+        <v>0.01669429985259119</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.76799533333334</v>
+        <v>51.01955666666666</v>
       </c>
       <c r="H9">
-        <v>182.303986</v>
+        <v>153.05867</v>
       </c>
       <c r="I9">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="J9">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>81.07766966666668</v>
+        <v>81.07766966666667</v>
       </c>
       <c r="N9">
         <v>243.233009</v>
       </c>
       <c r="O9">
-        <v>0.2646985445010758</v>
+        <v>0.5630799418129374</v>
       </c>
       <c r="P9">
-        <v>0.2646985445010758</v>
+        <v>0.5630799418129373</v>
       </c>
       <c r="Q9">
-        <v>4926.927451941543</v>
+        <v>4136.54676195978</v>
       </c>
       <c r="R9">
-        <v>44342.34706747389</v>
+        <v>37228.92085763802</v>
       </c>
       <c r="S9">
-        <v>0.05243104894091722</v>
+        <v>0.09716722868804153</v>
       </c>
       <c r="T9">
-        <v>0.05243104894091722</v>
+        <v>0.09716722868804152</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.76799533333334</v>
+        <v>51.01955666666666</v>
       </c>
       <c r="H10">
-        <v>182.303986</v>
+        <v>153.05867</v>
       </c>
       <c r="I10">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="J10">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>172.4159456666667</v>
+        <v>48.98200233333333</v>
       </c>
       <c r="N10">
-        <v>517.247837</v>
+        <v>146.946007</v>
       </c>
       <c r="O10">
-        <v>0.5628954316814363</v>
+        <v>0.3401773032837146</v>
       </c>
       <c r="P10">
-        <v>0.5628954316814363</v>
+        <v>0.3401773032837146</v>
       </c>
       <c r="Q10">
-        <v>10477.37138166425</v>
+        <v>2499.040043692299</v>
       </c>
       <c r="R10">
-        <v>94296.34243497829</v>
+        <v>22491.36039323069</v>
       </c>
       <c r="S10">
-        <v>0.111497394074217</v>
+        <v>0.05870229672224938</v>
       </c>
       <c r="T10">
-        <v>0.111497394074217</v>
+        <v>0.05870229672224938</v>
       </c>
     </row>
   </sheetData>
